--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>题目</t>
   </si>
@@ -52,19 +52,73 @@
   </si>
   <si>
     <t>26. 删除排序数组中的重复项</t>
+  </si>
+  <si>
+    <t>20. 有效的括号</t>
+  </si>
+  <si>
+    <t>242. 有效的字母异位词</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF424242"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">49. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF424242"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>字母异位词分组</t>
+    </r>
+  </si>
+  <si>
+    <t>94. 二叉树的中序遍历</t>
+  </si>
+  <si>
+    <t>144. 二叉树的前序遍历</t>
+  </si>
+  <si>
+    <t>145. 二叉树的后序遍历</t>
+  </si>
+  <si>
+    <t>剑指 Offer 40. 最小的k个数</t>
+  </si>
+  <si>
+    <t>239. 滑动窗口最大值</t>
+  </si>
+  <si>
+    <t>[剑指 Offer 49]丑数</t>
+  </si>
+  <si>
+    <t>589. N叉树的前序遍历</t>
+  </si>
+  <si>
+    <t>429. N叉树的层序遍历</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +135,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF424242"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -88,16 +148,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -105,9 +179,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -134,69 +224,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,19 +247,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF424242"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -234,187 +300,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,26 +494,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,11 +531,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +553,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -517,11 +577,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -533,10 +599,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,142 +611,151 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1030,13 +1105,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="27.75" customWidth="1"/>
   </cols>
@@ -1061,7 +1136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1074,8 +1149,11 @@
       <c r="D2">
         <v>6.14</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1088,8 +1166,11 @@
       <c r="D3">
         <v>6.14</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1102,8 +1183,11 @@
       <c r="D4">
         <v>6.14</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" s="2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1113,8 +1197,11 @@
       <c r="C5">
         <v>6.14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1124,8 +1211,11 @@
       <c r="C6">
         <v>6.14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1135,8 +1225,160 @@
       <c r="C7">
         <v>6.14</v>
       </c>
+      <c r="D7">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>6.15</v>
+      </c>
+      <c r="C8">
+        <v>6.15</v>
+      </c>
+      <c r="D8">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>6.16</v>
+      </c>
+      <c r="C9">
+        <v>6.16</v>
+      </c>
+      <c r="D9">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>6.16</v>
+      </c>
+      <c r="C10">
+        <v>6.16</v>
+      </c>
+      <c r="D10">
+        <v>6.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>6.17</v>
+      </c>
+      <c r="C11">
+        <v>6.17</v>
+      </c>
+      <c r="D11">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>6.17</v>
+      </c>
+      <c r="C12">
+        <v>6.17</v>
+      </c>
+      <c r="D12">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>6.17</v>
+      </c>
+      <c r="C13">
+        <v>6.17</v>
+      </c>
+      <c r="D13">
+        <v>6.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="C15" s="2">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>6.21</v>
+      </c>
+      <c r="C16">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>6.21</v>
+      </c>
+      <c r="C17">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>6.21</v>
+      </c>
+      <c r="C18">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="25" spans="5:5">
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" display="49. 字母异位词分组" tooltip="https://leetcode-cn.com/problems/group-anagrams/"/>
+    <hyperlink ref="A12" r:id="rId2" display="144. 二叉树的前序遍历" tooltip="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/"/>
+    <hyperlink ref="A13" r:id="rId3" display="145. 二叉树的后序遍历" tooltip="https://leetcode-cn.com/problems/binary-tree-postorder-traversal/"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>题目</t>
   </si>
@@ -95,6 +95,9 @@
     <t>239. 滑动窗口最大值</t>
   </si>
   <si>
+    <t>347. 前 K 个高频元素</t>
+  </si>
+  <si>
     <t>[剑指 Offer 49]丑数</t>
   </si>
   <si>
@@ -104,7 +107,74 @@
     <t>429. N叉树的层序遍历</t>
   </si>
   <si>
+    <t>22. 括号生成</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">98. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>验证二叉搜索树</t>
+    </r>
+  </si>
+  <si>
+    <t>50. Pow(x, n)</t>
+  </si>
+  <si>
+    <t>78. 子集</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">17. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电话号码的字母组合</t>
+    </r>
+  </si>
+  <si>
+    <t>51. N皇后</t>
+  </si>
+  <si>
+    <t>236. 二叉树的最近公共祖先</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>46. 全排列</t>
+  </si>
+  <si>
+    <t>47. 全排列 II</t>
+  </si>
+  <si>
+    <t>105. 从前序与中序遍历序列构造二叉树</t>
+  </si>
+  <si>
+    <t>77. 组合</t>
   </si>
 </sst>
 </file>
@@ -112,13 +182,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,22 +211,43 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10.5"/>
+      <color rgb="FF262626"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,15 +262,68 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,32 +337,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -232,64 +361,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF424242"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF262626"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -300,13 +382,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -318,169 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,10 +578,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -507,57 +587,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,6 +625,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -599,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -611,137 +693,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,6 +837,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1105,15 +1190,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="27.75" customWidth="1"/>
+    <col min="1" max="1" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1187,7 +1272,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1200,8 +1285,11 @@
       <c r="D5">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1214,8 +1302,11 @@
       <c r="D6">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1228,8 +1319,11 @@
       <c r="D7">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1242,8 +1336,11 @@
       <c r="D8">
         <v>6.16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1256,8 +1353,11 @@
       <c r="D9">
         <v>6.17</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1270,8 +1370,11 @@
       <c r="D10">
         <v>6.17</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1284,8 +1387,11 @@
       <c r="D11">
         <v>6.18</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1298,8 +1404,11 @@
       <c r="D12">
         <v>6.18</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1312,8 +1421,11 @@
       <c r="D13">
         <v>6.18</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1323,8 +1435,11 @@
       <c r="C14" s="2">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1334,19 +1449,25 @@
       <c r="C15" s="2">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6.2</v>
+      </c>
+      <c r="D16">
         <v>6.21</v>
       </c>
-      <c r="C16">
-        <v>6.21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1356,8 +1477,11 @@
       <c r="C17">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1367,10 +1491,164 @@
       <c r="C18">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" t="s">
+      <c r="D18">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>23</v>
+      </c>
+      <c r="B19">
+        <v>6.21</v>
+      </c>
+      <c r="C19">
+        <v>6.21</v>
+      </c>
+      <c r="D19">
+        <v>6.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>6.23</v>
+      </c>
+      <c r="C20">
+        <v>6.23</v>
+      </c>
+      <c r="D20">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>6.23</v>
+      </c>
+      <c r="C21">
+        <v>6.23</v>
+      </c>
+      <c r="D21">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>6.24</v>
+      </c>
+      <c r="C22">
+        <v>6.24</v>
+      </c>
+      <c r="D22">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23">
+        <v>6.24</v>
+      </c>
+      <c r="C23">
+        <v>6.24</v>
+      </c>
+      <c r="D23">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>6.25</v>
+      </c>
+      <c r="C24">
+        <v>6.25</v>
+      </c>
+      <c r="D24">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>6.25</v>
+      </c>
+      <c r="C25">
+        <v>6.25</v>
+      </c>
+      <c r="D25">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>6.26</v>
+      </c>
+      <c r="C26">
+        <v>6.26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>6.26</v>
+      </c>
+      <c r="C27">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>6.26</v>
+      </c>
+      <c r="C28">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>6.27</v>
+      </c>
+      <c r="C29">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>6.27</v>
+      </c>
+      <c r="C30">
+        <v>6.27</v>
       </c>
     </row>
   </sheetData>
@@ -1378,6 +1656,9 @@
     <hyperlink ref="A10" r:id="rId1" display="49. 字母异位词分组" tooltip="https://leetcode-cn.com/problems/group-anagrams/"/>
     <hyperlink ref="A12" r:id="rId2" display="144. 二叉树的前序遍历" tooltip="https://leetcode-cn.com/problems/binary-tree-preorder-traversal/"/>
     <hyperlink ref="A13" r:id="rId3" display="145. 二叉树的后序遍历" tooltip="https://leetcode-cn.com/problems/binary-tree-postorder-traversal/"/>
+    <hyperlink ref="A21" r:id="rId4" display="98. 验证二叉搜索树" tooltip="https://leetcode-cn.com/problems/validate-binary-search-tree/"/>
+    <hyperlink ref="A24" r:id="rId5" display="17. 电话号码的字母组合" tooltip="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/"/>
+    <hyperlink ref="A26" r:id="rId6" display="236. 二叉树的最近公共祖先" tooltip="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>题目</t>
   </si>
@@ -137,12 +137,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color rgb="FF262626"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">17. </t>
     </r>
     <r>
@@ -159,7 +153,24 @@
     <t>51. N皇后</t>
   </si>
   <si>
-    <t>236. 二叉树的最近公共祖先</t>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">236. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二叉树的最近公共祖先</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -175,6 +186,36 @@
   </si>
   <si>
     <t>77. 组合</t>
+  </si>
+  <si>
+    <t>102. 二叉树的层序遍历</t>
+  </si>
+  <si>
+    <t>200. 岛屿数量</t>
+  </si>
+  <si>
+    <t>206. 反转链表</t>
+  </si>
+  <si>
+    <t>24. 两两交换链表中的节点</t>
+  </si>
+  <si>
+    <t>322. 零钱兑换</t>
+  </si>
+  <si>
+    <t>455. 分发饼干</t>
+  </si>
+  <si>
+    <t>122. 买卖股票的最佳时机 II</t>
+  </si>
+  <si>
+    <t>55. 跳跃游戏</t>
+  </si>
+  <si>
+    <t>69. x 的平方根</t>
+  </si>
+  <si>
+    <t>33. 搜索旋转排序数组</t>
   </si>
 </sst>
 </file>
@@ -182,8 +223,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
@@ -218,7 +259,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,14 +289,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,7 +304,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,66 +351,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -353,9 +373,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,7 +414,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,187 +423,193 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,15 +620,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -596,32 +634,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -650,15 +667,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -673,6 +681,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -681,10 +728,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,143 +740,146 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -837,6 +887,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1190,10 +1246,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="B40" sqref="B40:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1222,7 +1278,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B2">
@@ -1234,7 +1290,7 @@
       <c r="D2">
         <v>6.14</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <v>6.2</v>
       </c>
     </row>
@@ -1251,7 +1307,7 @@
       <c r="D3">
         <v>6.14</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <v>6.2</v>
       </c>
     </row>
@@ -1268,7 +1324,7 @@
       <c r="D4">
         <v>6.14</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <v>6.2</v>
       </c>
     </row>
@@ -1358,7 +1414,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B10">
@@ -1392,7 +1448,7 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B12">
@@ -1409,7 +1465,7 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B13">
@@ -1425,49 +1481,58 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>6.2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>6.2</v>
       </c>
       <c r="D14">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
+      <c r="E14">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>6.2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="3">
         <v>6.2</v>
       </c>
       <c r="D15">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>6.2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="3">
         <v>6.2</v>
       </c>
       <c r="D16">
         <v>6.21</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1480,8 +1545,11 @@
       <c r="D17">
         <v>6.22</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1494,8 +1562,11 @@
       <c r="D18">
         <v>6.22</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1508,8 +1579,11 @@
       <c r="D19">
         <v>6.22</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1522,9 +1596,12 @@
       <c r="D20">
         <v>6.24</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
+      <c r="E20">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B21">
@@ -1536,8 +1613,11 @@
       <c r="D21">
         <v>6.24</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1550,8 +1630,11 @@
       <c r="D22">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1564,9 +1647,12 @@
       <c r="D23">
         <v>6.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="5" t="s">
+      <c r="E23">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B24">
@@ -1578,8 +1664,11 @@
       <c r="D24">
         <v>6.26</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1592,9 +1681,12 @@
       <c r="D25">
         <v>6.26</v>
       </c>
+      <c r="E25">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B26">
@@ -1603,11 +1695,14 @@
       <c r="C26">
         <v>6.26</v>
       </c>
+      <c r="D26">
+        <v>6.28</v>
+      </c>
       <c r="E26" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -1617,8 +1712,11 @@
       <c r="C27">
         <v>6.26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -1628,27 +1726,161 @@
       <c r="C28">
         <v>6.26</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>6.27</v>
+        <v>6.28</v>
       </c>
       <c r="C29">
-        <v>6.27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>6.28</v>
+      </c>
+      <c r="D29">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>6.27</v>
+        <v>6.28</v>
       </c>
       <c r="C30">
-        <v>6.27</v>
+        <v>6.28</v>
+      </c>
+      <c r="D30">
+        <v>6.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31">
+        <v>6.29</v>
+      </c>
+      <c r="C31">
+        <v>6.29</v>
+      </c>
+      <c r="D31" s="3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>6.29</v>
+      </c>
+      <c r="C32">
+        <v>6.29</v>
+      </c>
+      <c r="D32" s="3">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="D33">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6.3</v>
+      </c>
+      <c r="D34">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>7.1</v>
+      </c>
+      <c r="C36">
+        <v>7.1</v>
+      </c>
+      <c r="D36">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>7.1</v>
+      </c>
+      <c r="C37">
+        <v>7.1</v>
+      </c>
+      <c r="D37">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>7.2</v>
+      </c>
+      <c r="C38">
+        <v>7.2</v>
+      </c>
+      <c r="D38">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>7.4</v>
+      </c>
+      <c r="C39">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>7.4</v>
+      </c>
+      <c r="C40">
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -1659,6 +1891,7 @@
     <hyperlink ref="A21" r:id="rId4" display="98. 验证二叉搜索树" tooltip="https://leetcode-cn.com/problems/validate-binary-search-tree/"/>
     <hyperlink ref="A24" r:id="rId5" display="17. 电话号码的字母组合" tooltip="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/"/>
     <hyperlink ref="A26" r:id="rId6" display="236. 二叉树的最近公共祖先" tooltip="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
+    <hyperlink ref="A39" r:id="rId7" display="69. x 的平方根" tooltip="https://leetcode-cn.com/problems/sqrtx/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>题目</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">17. </t>
     </r>
     <r>
@@ -173,9 +179,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>46. 全排列</t>
   </si>
   <si>
@@ -200,22 +203,116 @@
     <t>24. 两两交换链表中的节点</t>
   </si>
   <si>
+    <t>455. 分发饼干</t>
+  </si>
+  <si>
+    <t>122. 买卖股票的最佳时机 II</t>
+  </si>
+  <si>
+    <t>55. 跳跃游戏</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">69. x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的平方根</t>
+    </r>
+  </si>
+  <si>
+    <t>33. 搜索旋转排序数组</t>
+  </si>
+  <si>
+    <t>45. 跳跃游戏 II</t>
+  </si>
+  <si>
+    <t>860. 柠檬水找零</t>
+  </si>
+  <si>
+    <t>141. 环形链表</t>
+  </si>
+  <si>
+    <t>142. 环形链表 II</t>
+  </si>
+  <si>
+    <t>25. K 个一组翻转链表</t>
+  </si>
+  <si>
+    <t>641. 设计循环双端队列</t>
+  </si>
+  <si>
+    <t>155. 最小栈</t>
+  </si>
+  <si>
+    <t>42. 接雨水</t>
+  </si>
+  <si>
+    <t>189. 旋转数组</t>
+  </si>
+  <si>
+    <t>66. 加一</t>
+  </si>
+  <si>
+    <t>21. 合并两个有序链表</t>
+  </si>
+  <si>
+    <t>62. 不同路径</t>
+  </si>
+  <si>
+    <t>63. 不同路径 II</t>
+  </si>
+  <si>
+    <t>1143. 最长公共子序列</t>
+  </si>
+  <si>
+    <t>120. 三角形最小路径和</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">53. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大子序和</t>
+    </r>
+  </si>
+  <si>
     <t>322. 零钱兑换</t>
   </si>
   <si>
-    <t>455. 分发饼干</t>
-  </si>
-  <si>
-    <t>122. 买卖股票的最佳时机 II</t>
-  </si>
-  <si>
-    <t>55. 跳跃游戏</t>
-  </si>
-  <si>
-    <t>69. x 的平方根</t>
-  </si>
-  <si>
-    <t>33. 搜索旋转排序数组</t>
+    <t>198. 打家劫舍</t>
+  </si>
+  <si>
+    <t>213. 打家劫舍 II</t>
+  </si>
+  <si>
+    <t>91. 解码方法</t>
+  </si>
+  <si>
+    <t>64. 最小路径和</t>
   </si>
 </sst>
 </file>
@@ -259,7 +356,106 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -273,90 +469,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -374,7 +486,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,21 +499,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF424242"/>
       <name val="宋体"/>
@@ -429,13 +526,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,7 +670,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,157 +700,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,13 +720,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -668,21 +769,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -693,15 +779,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -720,6 +797,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -728,145 +825,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -895,8 +992,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1246,10 +1343,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40:C40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1686,7 +1783,7 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B26">
@@ -1698,13 +1795,13 @@
       <c r="D26">
         <v>6.28</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" t="s">
-        <v>32</v>
       </c>
       <c r="B27">
         <v>6.26</v>
@@ -1715,10 +1812,13 @@
       <c r="D27">
         <v>6.28</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>6.26</v>
@@ -1729,10 +1829,13 @@
       <c r="D28">
         <v>6.28</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>6.28</v>
@@ -1743,10 +1846,13 @@
       <c r="D29">
         <v>6.29</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>6.28</v>
@@ -1757,10 +1863,13 @@
       <c r="D30">
         <v>6.29</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31">
         <v>6.29</v>
@@ -1771,10 +1880,13 @@
       <c r="D31" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32">
         <v>6.29</v>
@@ -1785,10 +1897,13 @@
       <c r="D32" s="3">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3">
         <v>6.3</v>
@@ -1799,10 +1914,13 @@
       <c r="D33">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>39</v>
+      <c r="E33">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="B34" s="3">
         <v>6.3</v>
@@ -1813,15 +1931,16 @@
       <c r="D34">
         <v>7.1</v>
       </c>
+      <c r="E34">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="A35" s="8"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36">
         <v>7.1</v>
@@ -1832,10 +1951,13 @@
       <c r="D36">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>7.1</v>
@@ -1846,10 +1968,13 @@
       <c r="D37">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>7.2</v>
@@ -1860,10 +1985,13 @@
       <c r="D38">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="8" t="s">
-        <v>44</v>
+      <c r="E38" s="3">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="B39">
         <v>7.4</v>
@@ -1871,16 +1999,322 @@
       <c r="C39">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <v>7.5</v>
+      </c>
+      <c r="E39">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40">
         <v>7.4</v>
       </c>
       <c r="C40">
         <v>7.4</v>
+      </c>
+      <c r="D40">
+        <v>7.5</v>
+      </c>
+      <c r="E40">
+        <v>7.12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41">
+        <v>7.5</v>
+      </c>
+      <c r="C41">
+        <v>7.5</v>
+      </c>
+      <c r="D41">
+        <v>7.6</v>
+      </c>
+      <c r="E41">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>7.5</v>
+      </c>
+      <c r="C42">
+        <v>7.5</v>
+      </c>
+      <c r="D42">
+        <v>7.6</v>
+      </c>
+      <c r="E42">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43">
+        <v>7.6</v>
+      </c>
+      <c r="C43">
+        <v>7.6</v>
+      </c>
+      <c r="D43">
+        <v>7.7</v>
+      </c>
+      <c r="E43">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44">
+        <v>7.6</v>
+      </c>
+      <c r="C44">
+        <v>7.6</v>
+      </c>
+      <c r="D44">
+        <v>7.7</v>
+      </c>
+      <c r="E44">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45">
+        <v>7.8</v>
+      </c>
+      <c r="C45">
+        <v>7.8</v>
+      </c>
+      <c r="D45">
+        <v>7.9</v>
+      </c>
+      <c r="E45">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46">
+        <v>7.9</v>
+      </c>
+      <c r="C46">
+        <v>7.9</v>
+      </c>
+      <c r="D46" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="E46">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="B47" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="C47" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="D47">
+        <v>7.11</v>
+      </c>
+      <c r="E47">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48">
+        <v>7.12</v>
+      </c>
+      <c r="C48">
+        <v>7.12</v>
+      </c>
+      <c r="D48">
+        <v>7.13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50">
+        <v>7.13</v>
+      </c>
+      <c r="C50">
+        <v>7.13</v>
+      </c>
+      <c r="D50">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51">
+        <v>7.14</v>
+      </c>
+      <c r="C51">
+        <v>7.14</v>
+      </c>
+      <c r="D51">
+        <v>7.15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>7.15</v>
+      </c>
+      <c r="C52">
+        <v>7.15</v>
+      </c>
+      <c r="D52">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53">
+        <v>7.15</v>
+      </c>
+      <c r="C53">
+        <v>7.15</v>
+      </c>
+      <c r="D53">
+        <v>7.16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54">
+        <v>7.16</v>
+      </c>
+      <c r="C54">
+        <v>7.16</v>
+      </c>
+      <c r="D54">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55">
+        <v>7.16</v>
+      </c>
+      <c r="C55">
+        <v>7.16</v>
+      </c>
+      <c r="D55">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>7.17</v>
+      </c>
+      <c r="C56">
+        <v>7.17</v>
+      </c>
+      <c r="D56">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57">
+        <v>7.17</v>
+      </c>
+      <c r="C57">
+        <v>7.17</v>
+      </c>
+      <c r="D57">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58">
+        <v>7.18</v>
+      </c>
+      <c r="C58">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>7.18</v>
+      </c>
+      <c r="C59">
+        <v>7.18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60">
+        <v>7.19</v>
+      </c>
+      <c r="C60">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61">
+        <v>7.19</v>
+      </c>
+      <c r="C61">
+        <v>7.19</v>
       </c>
     </row>
   </sheetData>
@@ -1892,6 +2326,7 @@
     <hyperlink ref="A24" r:id="rId5" display="17. 电话号码的字母组合" tooltip="https://leetcode-cn.com/problems/letter-combinations-of-a-phone-number/"/>
     <hyperlink ref="A26" r:id="rId6" display="236. 二叉树的最近公共祖先" tooltip="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
     <hyperlink ref="A39" r:id="rId7" display="69. x 的平方根" tooltip="https://leetcode-cn.com/problems/sqrtx/"/>
+    <hyperlink ref="A56" r:id="rId8" display="53. 最大子序和" tooltip="https://leetcode-cn.com/problems/maximum-subarray/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/刷题记录.xlsx
+++ b/刷题记录.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
   <si>
     <t>题目</t>
   </si>
@@ -314,16 +314,159 @@
   <si>
     <t>64. 最小路径和</t>
   </si>
+  <si>
+    <t>208. 实现 Trie (前缀树)</t>
+  </si>
+  <si>
+    <t>212. 单词搜索 II</t>
+  </si>
+  <si>
+    <t>547. 朋友圈</t>
+  </si>
+  <si>
+    <t>36. 有效的数独</t>
+  </si>
+  <si>
+    <t>37. 解数独</t>
+  </si>
+  <si>
+    <t>127. 单词接龙</t>
+  </si>
+  <si>
+    <t>773. 滑动谜题</t>
+  </si>
+  <si>
+    <t>191. 位1的个数</t>
+  </si>
+  <si>
+    <t>231. 2的幂</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">190. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF262626"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>颠倒二进制位</t>
+    </r>
+  </si>
+  <si>
+    <t>52. N皇后 II</t>
+  </si>
+  <si>
+    <t>338. 比特位计数</t>
+  </si>
+  <si>
+    <t>146. LRU缓存机制</t>
+  </si>
+  <si>
+    <t>118. 杨辉三角</t>
+  </si>
+  <si>
+    <t>119. 杨辉三角 II</t>
+  </si>
+  <si>
+    <t>比较排序算法</t>
+  </si>
+  <si>
+    <t>非比较排序算法</t>
+  </si>
+  <si>
+    <t>493. 翻转对</t>
+  </si>
+  <si>
+    <t>121. 买卖股票的最佳时机</t>
+  </si>
+  <si>
+    <t>123. 买卖股票的最佳时机 III</t>
+  </si>
+  <si>
+    <t>188. 买卖股票的最佳时机 IV</t>
+  </si>
+  <si>
+    <t>714. 买卖股票的最佳时机含手续费</t>
+  </si>
+  <si>
+    <t>309. 最佳买卖股票时机含冷冻期</t>
+  </si>
+  <si>
+    <t>72. 编辑距离</t>
+  </si>
+  <si>
+    <t>387. 字符串中的第一个唯一字符</t>
+  </si>
+  <si>
+    <t>字符串转换整数 (atoi)</t>
+  </si>
+  <si>
+    <t>14. 最长公共前缀</t>
+  </si>
+  <si>
+    <t>344. 反转字符串</t>
+  </si>
+  <si>
+    <t>5. 最长回文子串</t>
+  </si>
+  <si>
+    <t>10. 正则表达式匹配</t>
+  </si>
+  <si>
+    <t>541. 反转字符串 II</t>
+  </si>
+  <si>
+    <t>151. 翻转字符串里的单词</t>
+  </si>
+  <si>
+    <t>58. 最后一个单词的长度</t>
+  </si>
+  <si>
+    <t>709. 转换成小写字母</t>
+  </si>
+  <si>
+    <t>771. 宝石与石头</t>
+  </si>
+  <si>
+    <t>917. 仅仅反转字母</t>
+  </si>
+  <si>
+    <t>438. 找到字符串中所有字母异位词</t>
+  </si>
+  <si>
+    <t>290. 单词规律</t>
+  </si>
+  <si>
+    <t>394. 字符串解码</t>
+  </si>
+  <si>
+    <t>389. 找不同</t>
+  </si>
+  <si>
+    <t>211. 添加与搜索单词 - 数据结构设计</t>
+  </si>
+  <si>
+    <t>104. 二叉树的最大深度</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="25">
@@ -356,6 +499,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -363,30 +513,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -425,7 +552,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,23 +620,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,20 +642,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF424242"/>
       <name val="宋体"/>
@@ -526,7 +669,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,7 +687,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,7 +735,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,115 +831,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,25 +843,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -717,6 +860,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -731,24 +883,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,17 +902,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,13 +937,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,10 +968,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,133 +980,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1343,10 +1486,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -2092,7 +2235,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B45">
@@ -2142,8 +2285,8 @@
         <v>7.18</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="8" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B48">
@@ -2154,6 +2297,9 @@
       </c>
       <c r="D48">
         <v>7.13</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7.2</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -2161,7 +2307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2174,8 +2320,11 @@
       <c r="D50">
         <v>7.14</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" s="3">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2188,8 +2337,11 @@
       <c r="D51">
         <v>7.15</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" s="3">
+        <v>7.22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2202,8 +2354,11 @@
       <c r="D52">
         <v>7.16</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" s="3">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2216,8 +2371,11 @@
       <c r="D53">
         <v>7.16</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" s="3">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>57</v>
       </c>
@@ -2230,8 +2388,11 @@
       <c r="D54">
         <v>7.17</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -2244,8 +2405,11 @@
       <c r="D55">
         <v>7.17</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>7.24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="7" t="s">
         <v>59</v>
       </c>
@@ -2258,8 +2422,11 @@
       <c r="D56">
         <v>7.18</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
         <v>60</v>
       </c>
@@ -2272,8 +2439,11 @@
       <c r="D57">
         <v>7.18</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="E57">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -2283,8 +2453,14 @@
       <c r="C58">
         <v>7.18</v>
       </c>
-    </row>
-    <row r="59" spans="1:3">
+      <c r="D58">
+        <v>7.19</v>
+      </c>
+      <c r="E58">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -2294,9 +2470,15 @@
       <c r="C59">
         <v>7.18</v>
       </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+      <c r="D59">
+        <v>7.19</v>
+      </c>
+      <c r="E59">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B60">
@@ -2305,8 +2487,14 @@
       <c r="C60">
         <v>7.19</v>
       </c>
-    </row>
-    <row r="61" spans="1:3">
+      <c r="D60" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="E60">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -2315,6 +2503,713 @@
       </c>
       <c r="C61">
         <v>7.19</v>
+      </c>
+      <c r="D61" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="E61">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="C62" s="3">
+        <v>7.2</v>
+      </c>
+      <c r="D62" s="3">
+        <v>7.22</v>
+      </c>
+      <c r="E62">
+        <v>7.29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="3">
+        <v>7.22</v>
+      </c>
+      <c r="C63" s="3">
+        <v>7.22</v>
+      </c>
+      <c r="D63" s="3">
+        <v>7.23</v>
+      </c>
+      <c r="E63" s="3">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="3">
+        <v>7.23</v>
+      </c>
+      <c r="C64" s="3">
+        <v>7.23</v>
+      </c>
+      <c r="D64">
+        <v>7.24</v>
+      </c>
+      <c r="E64">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65">
+        <v>7.25</v>
+      </c>
+      <c r="C65">
+        <v>7.25</v>
+      </c>
+      <c r="D65">
+        <v>7.26</v>
+      </c>
+      <c r="E65">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66">
+        <v>7.25</v>
+      </c>
+      <c r="C66">
+        <v>7.25</v>
+      </c>
+      <c r="D66">
+        <v>7.26</v>
+      </c>
+      <c r="E66">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67">
+        <v>7.26</v>
+      </c>
+      <c r="C67">
+        <v>7.26</v>
+      </c>
+      <c r="D67">
+        <v>7.27</v>
+      </c>
+      <c r="E67">
+        <v>8.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>72</v>
+      </c>
+      <c r="B69">
+        <v>7.27</v>
+      </c>
+      <c r="C69">
+        <v>7.27</v>
+      </c>
+      <c r="D69">
+        <v>7.28</v>
+      </c>
+      <c r="E69">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70">
+        <v>7.27</v>
+      </c>
+      <c r="C70">
+        <v>7.27</v>
+      </c>
+      <c r="D70">
+        <v>7.28</v>
+      </c>
+      <c r="E70">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B71">
+        <v>7.27</v>
+      </c>
+      <c r="C71">
+        <v>7.27</v>
+      </c>
+      <c r="D71">
+        <v>7.28</v>
+      </c>
+      <c r="E71">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>7.28</v>
+      </c>
+      <c r="C72">
+        <v>7.28</v>
+      </c>
+      <c r="D72">
+        <v>7.29</v>
+      </c>
+      <c r="E72">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>76</v>
+      </c>
+      <c r="B73">
+        <v>7.28</v>
+      </c>
+      <c r="C73">
+        <v>7.28</v>
+      </c>
+      <c r="D73">
+        <v>7.29</v>
+      </c>
+      <c r="E73">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74">
+        <v>7.29</v>
+      </c>
+      <c r="C74">
+        <v>7.29</v>
+      </c>
+      <c r="D74" s="3">
+        <v>7.3</v>
+      </c>
+      <c r="E74">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>78</v>
+      </c>
+      <c r="B75">
+        <v>7.31</v>
+      </c>
+      <c r="C75">
+        <v>7.31</v>
+      </c>
+      <c r="D75">
+        <v>8.1</v>
+      </c>
+      <c r="E75">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>7.31</v>
+      </c>
+      <c r="C76">
+        <v>7.31</v>
+      </c>
+      <c r="D76">
+        <v>8.1</v>
+      </c>
+      <c r="E76">
+        <v>8.7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B77">
+        <v>8.1</v>
+      </c>
+      <c r="C77">
+        <v>8.1</v>
+      </c>
+      <c r="D77">
+        <v>8.2</v>
+      </c>
+      <c r="E77">
+        <v>8.8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+      <c r="B78">
+        <v>8.2</v>
+      </c>
+      <c r="C78">
+        <v>8.2</v>
+      </c>
+      <c r="D78">
+        <v>8.3</v>
+      </c>
+      <c r="E78">
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79">
+        <v>8.3</v>
+      </c>
+      <c r="C79">
+        <v>8.3</v>
+      </c>
+      <c r="D79">
+        <v>8.4</v>
+      </c>
+      <c r="E79" s="3">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80">
+        <v>8.4</v>
+      </c>
+      <c r="C80">
+        <v>8.4</v>
+      </c>
+      <c r="D80">
+        <v>8.5</v>
+      </c>
+      <c r="E80" s="3">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>40</v>
+      </c>
+      <c r="B81">
+        <v>8.4</v>
+      </c>
+      <c r="C81">
+        <v>8.4</v>
+      </c>
+      <c r="D81">
+        <v>8.5</v>
+      </c>
+      <c r="E81" s="3">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82">
+        <v>8.4</v>
+      </c>
+      <c r="C82">
+        <v>8.4</v>
+      </c>
+      <c r="D82">
+        <v>8.5</v>
+      </c>
+      <c r="E82" s="3">
+        <v>8.11</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83">
+        <v>8.5</v>
+      </c>
+      <c r="C83">
+        <v>8.5</v>
+      </c>
+      <c r="D83">
+        <v>8.6</v>
+      </c>
+      <c r="E83">
+        <v>8.12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84">
+        <v>8.5</v>
+      </c>
+      <c r="C84">
+        <v>8.5</v>
+      </c>
+      <c r="D84">
+        <v>8.6</v>
+      </c>
+      <c r="E84">
+        <v>8.12</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85">
+        <v>8.5</v>
+      </c>
+      <c r="C85">
+        <v>8.5</v>
+      </c>
+      <c r="D85">
+        <v>8.6</v>
+      </c>
+      <c r="E85">
+        <v>8.12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86">
+        <v>8.6</v>
+      </c>
+      <c r="C86">
+        <v>8.6</v>
+      </c>
+      <c r="D86">
+        <v>8.7</v>
+      </c>
+      <c r="E86">
+        <v>8.13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87">
+        <v>8.7</v>
+      </c>
+      <c r="C87">
+        <v>8.7</v>
+      </c>
+      <c r="D87">
+        <v>8.8</v>
+      </c>
+      <c r="E87">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>8.7</v>
+      </c>
+      <c r="C88">
+        <v>8.7</v>
+      </c>
+      <c r="D88">
+        <v>8.8</v>
+      </c>
+      <c r="E88">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89">
+        <v>8.7</v>
+      </c>
+      <c r="C89">
+        <v>8.7</v>
+      </c>
+      <c r="D89">
+        <v>8.8</v>
+      </c>
+      <c r="E89">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90">
+        <v>8.7</v>
+      </c>
+      <c r="C90">
+        <v>8.7</v>
+      </c>
+      <c r="D90">
+        <v>8.8</v>
+      </c>
+      <c r="E90">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91">
+        <v>8.8</v>
+      </c>
+      <c r="C91">
+        <v>8.8</v>
+      </c>
+      <c r="D91">
+        <v>8.9</v>
+      </c>
+      <c r="E91">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92">
+        <v>8.9</v>
+      </c>
+      <c r="C92">
+        <v>8.9</v>
+      </c>
+      <c r="D92" s="3">
+        <v>8.1</v>
+      </c>
+      <c r="E92">
+        <v>8.16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="3">
+        <v>8.11</v>
+      </c>
+      <c r="C93" s="3">
+        <v>8.11</v>
+      </c>
+      <c r="D93">
+        <v>8.12</v>
+      </c>
+      <c r="E93">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="3">
+        <v>8.11</v>
+      </c>
+      <c r="C94" s="3">
+        <v>8.11</v>
+      </c>
+      <c r="D94">
+        <v>8.12</v>
+      </c>
+      <c r="E94">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95">
+        <v>8.12</v>
+      </c>
+      <c r="C95">
+        <v>8.12</v>
+      </c>
+      <c r="D95">
+        <v>8.13</v>
+      </c>
+      <c r="E95">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96">
+        <v>8.12</v>
+      </c>
+      <c r="C96">
+        <v>8.12</v>
+      </c>
+      <c r="D96">
+        <v>8.13</v>
+      </c>
+      <c r="E96">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97">
+        <v>8.12</v>
+      </c>
+      <c r="C97">
+        <v>8.12</v>
+      </c>
+      <c r="D97">
+        <v>8.13</v>
+      </c>
+      <c r="E97">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98">
+        <v>8.13</v>
+      </c>
+      <c r="C98">
+        <v>8.13</v>
+      </c>
+      <c r="D98">
+        <v>8.14</v>
+      </c>
+      <c r="E98" s="3">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99">
+        <v>8.16</v>
+      </c>
+      <c r="C99">
+        <v>8.16</v>
+      </c>
+      <c r="D99">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>102</v>
+      </c>
+      <c r="B100">
+        <v>8.17</v>
+      </c>
+      <c r="C100">
+        <v>8.17</v>
+      </c>
+      <c r="D100">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101">
+        <v>8.18</v>
+      </c>
+      <c r="C101">
+        <v>8.18</v>
+      </c>
+      <c r="D101">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102">
+        <v>8.19</v>
+      </c>
+      <c r="C102">
+        <v>8.19</v>
+      </c>
+      <c r="D102" s="3">
+        <v>8.2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="3">
+        <v>8.2</v>
+      </c>
+      <c r="C103" s="3">
+        <v>8.2</v>
+      </c>
+      <c r="D103">
+        <v>8.21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104">
+        <v>8.21</v>
+      </c>
+      <c r="C104">
+        <v>8.21</v>
+      </c>
+      <c r="D104">
+        <v>8.22</v>
       </c>
     </row>
   </sheetData>
@@ -2327,6 +3222,7 @@
     <hyperlink ref="A26" r:id="rId6" display="236. 二叉树的最近公共祖先" tooltip="https://leetcode-cn.com/problems/lowest-common-ancestor-of-a-binary-tree/"/>
     <hyperlink ref="A39" r:id="rId7" display="69. x 的平方根" tooltip="https://leetcode-cn.com/problems/sqrtx/"/>
     <hyperlink ref="A56" r:id="rId8" display="53. 最大子序和" tooltip="https://leetcode-cn.com/problems/maximum-subarray/"/>
+    <hyperlink ref="A71" r:id="rId9" display="190. 颠倒二进制位" tooltip="https://leetcode-cn.com/problems/reverse-bits/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2340,7 +3236,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2357,7 +3253,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
